--- a/Assets/RealFram/Data/Excel/EnemyData.xlsx
+++ b/Assets/RealFram/Data/Excel/EnemyData.xlsx
@@ -51,6 +51,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>白炮台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人机</t>
+  </si>
+  <si>
+    <t>红蜘蛛</t>
+  </si>
+  <si>
     <r>
       <t>Assets/</t>
     </r>
@@ -69,11 +79,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/Prefabs/drone.prefab</t>
-    </r>
-  </si>
-  <si>
-    <t>白炮台</t>
+      <t>/prefabs/spider.prefab</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -95,8 +102,9 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/Prefabs/turret.prefab</t>
-    </r>
+      <t>/prefabs/drone.prefab</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -117,11 +125,9 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/Prefabs/spider.prefab</t>
-    </r>
-  </si>
-  <si>
-    <t>无人机</t>
+      <t>/prefabs/spider3.prefab</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -142,11 +148,9 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/Prefabs/spider3.prefab</t>
-    </r>
-  </si>
-  <si>
-    <t>红蜘蛛</t>
+      <t>/prefabs/spider2.prefab</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -167,8 +171,9 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/Prefabs/spider2.prefab</t>
-    </r>
+      <t>/prefabs/turret.prefab</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -526,7 +531,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -589,7 +594,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -601,7 +606,7 @@
         <v>3002</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -635,7 +640,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -647,7 +652,7 @@
         <v>3001</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -658,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -670,7 +675,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>1</v>

--- a/Assets/RealFram/Data/Excel/EnemyData.xlsx
+++ b/Assets/RealFram/Data/Excel/EnemyData.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="37455" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="所有怪物参数" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>名字</t>
   </si>
@@ -28,37 +31,161 @@
     <t>攻击特效ID</t>
   </si>
   <si>
+    <t>预制体完整路径</t>
+  </si>
+  <si>
     <t>怪物大小</t>
   </si>
   <si>
     <t>绿蜘蛛</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/prefabs/spider.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>无人机</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/prefabs/drone.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>白蜘蛛</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/prefabs/spider3.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>红蜘蛛</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/prefabs/spider2.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>白炮台</t>
+  </si>
+  <si>
     <t>3001</t>
   </si>
   <si>
-    <t>白蜘蛛</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制体完整路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白炮台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无人机</t>
-  </si>
-  <si>
-    <t>红蜘蛛</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/prefabs/turret.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>炮弹泰坦</t>
   </si>
   <si>
     <r>
@@ -79,9 +206,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/prefabs/spider.prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>/prefabs/ammoTitan.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>炮弹</t>
   </si>
   <si>
     <r>
@@ -102,9 +231,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/prefabs/drone.prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>/prefabs/mine.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>击地泰坦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -125,70 +257,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/prefabs/spider3.prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Assets/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>枪火之地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/prefabs/spider2.prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Assets/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>枪火之地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/prefabs/turret.prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>/prefabs/beatTitan.prefab</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -199,8 +279,18 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,8 +313,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -528,42 +619,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -571,10 +662,10 @@
         <v>2001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>1.8</v>
@@ -583,7 +674,7 @@
         <v>3001</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -594,7 +685,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -606,7 +697,7 @@
         <v>3002</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -617,7 +708,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -629,7 +720,7 @@
         <v>3003</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -652,18 +743,18 @@
         <v>3001</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>8</v>
+      <c r="A6">
+        <v>2005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -672,18 +763,87 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>3001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>